--- a/07_calc_country_stats/04_total_co2_stats/02_combine_tile_stats/country_total_co2_stats.xlsx
+++ b/07_calc_country_stats/04_total_co2_stats/02_combine_tile_stats/country_total_co2_stats.xlsx
@@ -1146,10 +1146,10 @@
         <v>126</v>
       </c>
       <c r="D2">
-        <v>24236651.37650321</v>
+        <v>45464255.76516845</v>
       </c>
       <c r="E2">
-        <v>862.8343570218548</v>
+        <v>1617.990889116251</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>127</v>
       </c>
       <c r="D3">
-        <v>2787.228582491559</v>
+        <v>4656.045633351849</v>
       </c>
       <c r="E3">
-        <v>856.9444444444445</v>
+        <v>1431.5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>128</v>
       </c>
       <c r="D4">
-        <v>1701255.579160197</v>
+        <v>10125160.52766784</v>
       </c>
       <c r="E4">
-        <v>230.9822104954559</v>
+        <v>1372.57504544122</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>129</v>
       </c>
       <c r="D5">
-        <v>14168.46560709875</v>
+        <v>73008.99169174829</v>
       </c>
       <c r="E5">
-        <v>238.871757925072</v>
+        <v>1230.871757925072</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>130</v>
       </c>
       <c r="D6">
-        <v>210259047.3185283</v>
+        <v>321473627.8008416</v>
       </c>
       <c r="E6">
-        <v>1404.513279560108</v>
+        <v>2146.046861718424</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>131</v>
       </c>
       <c r="D7">
-        <v>3484177.035706624</v>
+        <v>10173447.78934383</v>
       </c>
       <c r="E7">
-        <v>473.6590419671475</v>
+        <v>1385.535381610577</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>132</v>
       </c>
       <c r="D8">
-        <v>43306397.04581568</v>
+        <v>87614677.91777363</v>
       </c>
       <c r="E8">
-        <v>887.1934580934101</v>
+        <v>1794.203417697035</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>133</v>
       </c>
       <c r="D9">
-        <v>95538034.62728898</v>
+        <v>70736980.49711974</v>
       </c>
       <c r="E9">
-        <v>1827.665864011597</v>
+        <v>1353.49193149365</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>134</v>
       </c>
       <c r="D10">
-        <v>21623393.8446786</v>
+        <v>24268931.04512037</v>
       </c>
       <c r="E10">
-        <v>1881.535096316184</v>
+        <v>2111.729178162292</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1299,10 +1299,10 @@
         <v>135</v>
       </c>
       <c r="D11">
-        <v>25296776.25300317</v>
+        <v>42510230.86710669</v>
       </c>
       <c r="E11">
-        <v>851.7968505408752</v>
+        <v>1430.819165699659</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1316,10 +1316,10 @@
         <v>136</v>
       </c>
       <c r="D12">
-        <v>37763.47532138215</v>
+        <v>164075.2378826633</v>
       </c>
       <c r="E12">
-        <v>276.190262652146</v>
+        <v>1199.031390134529</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1333,10 +1333,10 @@
         <v>137</v>
       </c>
       <c r="D13">
-        <v>59531093.8070804</v>
+        <v>72980680.41642578</v>
       </c>
       <c r="E13">
-        <v>765.488292060125</v>
+        <v>938.4114857909349</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1350,10 +1350,10 @@
         <v>138</v>
       </c>
       <c r="D14">
-        <v>37155891.80759368</v>
+        <v>20444125.30414285</v>
       </c>
       <c r="E14">
-        <v>1796.30272711288</v>
+        <v>988.30665117057</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1367,10 +1367,10 @@
         <v>139</v>
       </c>
       <c r="D15">
-        <v>7806225.186301116</v>
+        <v>6496323.953114367</v>
       </c>
       <c r="E15">
-        <v>1455.438764887517</v>
+        <v>1211.215403617115</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1384,10 +1384,10 @@
         <v>140</v>
       </c>
       <c r="D16">
-        <v>334599052.091359</v>
+        <v>343685635.9854999</v>
       </c>
       <c r="E16">
-        <v>1697.263081834582</v>
+        <v>1743.327113485519</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1401,10 +1401,10 @@
         <v>141</v>
       </c>
       <c r="D17">
-        <v>19306016.22667701</v>
+        <v>39220097.39113197</v>
       </c>
       <c r="E17">
-        <v>814.328223315866</v>
+        <v>1654.31235131204</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1418,10 +1418,10 @@
         <v>142</v>
       </c>
       <c r="D18">
-        <v>2123749.382891236</v>
+        <v>3816148.382452946</v>
       </c>
       <c r="E18">
-        <v>1057.49688737974</v>
+        <v>1900.220194302962</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1435,10 +1435,10 @@
         <v>143</v>
       </c>
       <c r="D19">
-        <v>148084141.8640113</v>
+        <v>142346676.4974151</v>
       </c>
       <c r="E19">
-        <v>1166.284711300913</v>
+        <v>1121.341329553487</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1452,10 +1452,10 @@
         <v>144</v>
       </c>
       <c r="D20">
-        <v>1112437.367879687</v>
+        <v>1428906.858323533</v>
       </c>
       <c r="E20">
-        <v>1592.268007610764</v>
+        <v>2045.24259309595</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1469,10 +1469,10 @@
         <v>145</v>
       </c>
       <c r="D21">
-        <v>77729486.53773528</v>
+        <v>109986458.2349266</v>
       </c>
       <c r="E21">
-        <v>1478.249592044283</v>
+        <v>2091.609810240269</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1486,10 +1486,10 @@
         <v>146</v>
       </c>
       <c r="D22">
-        <v>15363529.41823484</v>
+        <v>24312846.85945458</v>
       </c>
       <c r="E22">
-        <v>1022.402059884819</v>
+        <v>1617.599600927187</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1503,10 +1503,10 @@
         <v>147</v>
       </c>
       <c r="D23">
-        <v>4337019301.327466</v>
+        <v>6125426462.841192</v>
       </c>
       <c r="E23">
-        <v>1494.186168347483</v>
+        <v>2110.784782031037</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1520,10 +1520,10 @@
         <v>148</v>
       </c>
       <c r="D24">
-        <v>592825628.9151167</v>
+        <v>330340187.3241624</v>
       </c>
       <c r="E24">
-        <v>1476.678491918826</v>
+        <v>817.1164396951417</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1537,10 +1537,10 @@
         <v>149</v>
       </c>
       <c r="D25">
-        <v>10085193.36999941</v>
+        <v>15096454.80875204</v>
       </c>
       <c r="E25">
-        <v>1032.450713485383</v>
+        <v>1545.43243418433</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1554,10 +1554,10 @@
         <v>150</v>
       </c>
       <c r="D26">
-        <v>2195190.146518651</v>
+        <v>1563832.601411637</v>
       </c>
       <c r="E26">
-        <v>2132.390028585842</v>
+        <v>1518.993105767614</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1571,10 +1571,10 @@
         <v>151</v>
       </c>
       <c r="D27">
-        <v>43090971.41921061</v>
+        <v>75773370.22760481</v>
       </c>
       <c r="E27">
-        <v>794.4937335599956</v>
+        <v>1397.054175061563</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1588,10 +1588,10 @@
         <v>152</v>
       </c>
       <c r="D28">
-        <v>12532702.37971812</v>
+        <v>12958974.26810303</v>
       </c>
       <c r="E28">
-        <v>1526.331690737298</v>
+        <v>1578.107773365745</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1605,10 +1605,10 @@
         <v>153</v>
       </c>
       <c r="D29">
-        <v>184401.9180826073</v>
+        <v>273551.8039477791</v>
       </c>
       <c r="E29">
-        <v>1141.111936036551</v>
+        <v>1692.577955454026</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1622,10 +1622,10 @@
         <v>154</v>
       </c>
       <c r="D30">
-        <v>1863408.213699069</v>
+        <v>4013079.232943405</v>
       </c>
       <c r="E30">
-        <v>537.0201025585075</v>
+        <v>1158.025966941247</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1639,10 +1639,10 @@
         <v>155</v>
       </c>
       <c r="D31">
-        <v>867985051.7699703</v>
+        <v>616660200.0995657</v>
       </c>
       <c r="E31">
-        <v>1627.4830148746</v>
+        <v>1156.829967900323</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1656,10 +1656,10 @@
         <v>156</v>
       </c>
       <c r="D32">
-        <v>3230521.822848608</v>
+        <v>3433071.580849309</v>
       </c>
       <c r="E32">
-        <v>1661.609862287634</v>
+        <v>1765.823860678624</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1673,10 +1673,10 @@
         <v>157</v>
       </c>
       <c r="D33">
-        <v>312760.0949471151</v>
+        <v>579304.7188835373</v>
       </c>
       <c r="E33">
-        <v>798.4825700615174</v>
+        <v>1478.922305764411</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1690,10 +1690,10 @@
         <v>158</v>
       </c>
       <c r="D34">
-        <v>961300460.7528198</v>
+        <v>1040479935.261308</v>
       </c>
       <c r="E34">
-        <v>1840.913513940633</v>
+        <v>1992.073399844249</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1707,10 +1707,10 @@
         <v>159</v>
       </c>
       <c r="D35">
-        <v>541056.7329306265</v>
+        <v>1097299.189541405</v>
       </c>
       <c r="E35">
-        <v>801.0315543970366</v>
+        <v>1624.553711071478</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1724,10 +1724,10 @@
         <v>160</v>
       </c>
       <c r="D36">
-        <v>1458101024.054397</v>
+        <v>1375519431.864559</v>
       </c>
       <c r="E36">
-        <v>1737.601468448916</v>
+        <v>1639.104054692071</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1741,10 +1741,10 @@
         <v>161</v>
       </c>
       <c r="D37">
-        <v>90899730.76233105</v>
+        <v>105370766.394863</v>
       </c>
       <c r="E37">
-        <v>1226.05523423548</v>
+        <v>1420.605161393237</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1758,10 +1758,10 @@
         <v>162</v>
       </c>
       <c r="D38">
-        <v>58334.45615594013</v>
+        <v>100318.767223311</v>
       </c>
       <c r="E38">
-        <v>1218.638888888889</v>
+        <v>2095.714285714286</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1775,10 +1775,10 @@
         <v>163</v>
       </c>
       <c r="D39">
-        <v>139176166.9844884</v>
+        <v>98613116.68594575</v>
       </c>
       <c r="E39">
-        <v>1722.80547160808</v>
+        <v>1220.689107542174</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1792,10 +1792,10 @@
         <v>164</v>
       </c>
       <c r="D40">
-        <v>133449.0649966291</v>
+        <v>213064.8764220702</v>
       </c>
       <c r="E40">
-        <v>1070.611232676878</v>
+        <v>1709.289569657185</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1809,10 +1809,10 @@
         <v>165</v>
       </c>
       <c r="D41">
-        <v>94603.1082698315</v>
+        <v>643806.3646645867</v>
       </c>
       <c r="E41">
-        <v>206.6487448482578</v>
+        <v>1406.364743349569</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1826,10 +1826,10 @@
         <v>166</v>
       </c>
       <c r="D42">
-        <v>2131437.376042672</v>
+        <v>8769919.578300025</v>
       </c>
       <c r="E42">
-        <v>303.4387885628292</v>
+        <v>1246.452407825433</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1843,10 +1843,10 @@
         <v>167</v>
       </c>
       <c r="D43">
-        <v>10928.77205032353</v>
+        <v>16837.54828647721</v>
       </c>
       <c r="E43">
-        <v>1262.54347826087</v>
+        <v>1945.152173913043</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1860,10 +1860,10 @@
         <v>168</v>
       </c>
       <c r="D44">
-        <v>239857.7254738886</v>
+        <v>200379.4332704028</v>
       </c>
       <c r="E44">
-        <v>1535.227750138198</v>
+        <v>1282.752902155887</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1877,10 +1877,10 @@
         <v>169</v>
       </c>
       <c r="D45">
-        <v>103671987.3028688</v>
+        <v>149439376.6572788</v>
       </c>
       <c r="E45">
-        <v>943.6360767191054</v>
+        <v>1360.188993682681</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1894,10 +1894,10 @@
         <v>170</v>
       </c>
       <c r="D46">
-        <v>401919233.0070763</v>
+        <v>438284668.3843989</v>
       </c>
       <c r="E46">
-        <v>1742.615416769401</v>
+        <v>1899.918964470184</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1911,10 +1911,10 @@
         <v>171</v>
       </c>
       <c r="D47">
-        <v>54160.13460395695</v>
+        <v>44770.69656074097</v>
       </c>
       <c r="E47">
-        <v>1704.00583090379</v>
+        <v>1408.822157434402</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1928,10 +1928,10 @@
         <v>172</v>
       </c>
       <c r="D48">
-        <v>498522059.3218245</v>
+        <v>428230697.2316887</v>
       </c>
       <c r="E48">
-        <v>1753.035257469016</v>
+        <v>1505.880261147427</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1945,10 +1945,10 @@
         <v>173</v>
       </c>
       <c r="D49">
-        <v>527457.2400325502</v>
+        <v>1737442.873960092</v>
       </c>
       <c r="E49">
-        <v>365.5437349244636</v>
+        <v>1204.199949219246</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1962,10 +1962,10 @@
         <v>174</v>
       </c>
       <c r="D50">
-        <v>29760.86009621788</v>
+        <v>68450.87756756743</v>
       </c>
       <c r="E50">
-        <v>676.6244725738396</v>
+        <v>1556.261603375527</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1979,10 +1979,10 @@
         <v>175</v>
       </c>
       <c r="D51">
-        <v>56347672.05589092</v>
+        <v>52204402.53587114</v>
       </c>
       <c r="E51">
-        <v>1528.984619924397</v>
+        <v>1416.804360655904</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1996,10 +1996,10 @@
         <v>176</v>
       </c>
       <c r="D52">
-        <v>581492842.8136548</v>
+        <v>620465565.4293307</v>
       </c>
       <c r="E52">
-        <v>1656.995540647763</v>
+        <v>1767.674672372198</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2013,10 +2013,10 @@
         <v>177</v>
       </c>
       <c r="D53">
-        <v>30510.56784028524</v>
+        <v>55724.9450133193</v>
       </c>
       <c r="E53">
-        <v>679.9606625258799</v>
+        <v>1241.873706004141</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2030,10 +2030,10 @@
         <v>178</v>
       </c>
       <c r="D54">
-        <v>36600.28788606241</v>
+        <v>57191.32601752336</v>
       </c>
       <c r="E54">
-        <v>1135.297142857143</v>
+        <v>1774.011428571428</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2047,10 +2047,10 @@
         <v>179</v>
       </c>
       <c r="D55">
-        <v>570487.657569629</v>
+        <v>850194.0295380089</v>
       </c>
       <c r="E55">
-        <v>845.75642530985</v>
+        <v>1260.424787997391</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2064,10 +2064,10 @@
         <v>180</v>
       </c>
       <c r="D56">
-        <v>238439601.6222793</v>
+        <v>256750720.7702571</v>
       </c>
       <c r="E56">
-        <v>1560.130620214631</v>
+        <v>1679.968438239907</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2081,10 +2081,10 @@
         <v>181</v>
       </c>
       <c r="D57">
-        <v>915550.7523816383</v>
+        <v>1430704.036155157</v>
       </c>
       <c r="E57">
-        <v>1054.89364814041</v>
+        <v>1648.452674467196</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2098,10 +2098,10 @@
         <v>182</v>
       </c>
       <c r="D58">
-        <v>692997046.1227784</v>
+        <v>1326046390.20908</v>
       </c>
       <c r="E58">
-        <v>691.036507201874</v>
+        <v>1319.36638438216</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2115,10 +2115,10 @@
         <v>183</v>
       </c>
       <c r="D59">
-        <v>3923600.560355586</v>
+        <v>4243942.566263875</v>
       </c>
       <c r="E59">
-        <v>1370.973146834691</v>
+        <v>1482.90716854155</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2132,10 +2132,10 @@
         <v>184</v>
       </c>
       <c r="D60">
-        <v>103730.0676162469</v>
+        <v>368061.2681077803</v>
       </c>
       <c r="E60">
-        <v>563.819696969697</v>
+        <v>2000.580303030303</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2149,10 +2149,10 @@
         <v>185</v>
       </c>
       <c r="D61">
-        <v>746793453.6067634</v>
+        <v>332476951.7220275</v>
       </c>
       <c r="E61">
-        <v>1664.312962257265</v>
+        <v>741.0569760177005</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2166,10 +2166,10 @@
         <v>186</v>
       </c>
       <c r="D62">
-        <v>81877.63026151308</v>
+        <v>219429.9640201587</v>
       </c>
       <c r="E62">
-        <v>407.6901827454313</v>
+        <v>1087.51253718657</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2183,10 +2183,10 @@
         <v>187</v>
       </c>
       <c r="D63">
-        <v>10499204.11041762</v>
+        <v>16426898.89798947</v>
       </c>
       <c r="E63">
-        <v>1205.994585873461</v>
+        <v>1887.151866249418</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2200,10 +2200,10 @@
         <v>188</v>
       </c>
       <c r="D64">
-        <v>175205521.0932598</v>
+        <v>337883316.1676034</v>
       </c>
       <c r="E64">
-        <v>1005.330707618732</v>
+        <v>1938.782204466785</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2217,10 +2217,10 @@
         <v>189</v>
       </c>
       <c r="D65">
-        <v>19401023.49898456</v>
+        <v>18690174.97109519</v>
       </c>
       <c r="E65">
-        <v>1090.129932908723</v>
+        <v>1050.189810412694</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2234,10 +2234,10 @@
         <v>190</v>
       </c>
       <c r="D66">
-        <v>186361206.7069733</v>
+        <v>285155226.689696</v>
       </c>
       <c r="E66">
-        <v>625.515004056872</v>
+        <v>955.6334968720379</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2251,10 +2251,10 @@
         <v>191</v>
       </c>
       <c r="D67">
-        <v>36811.75041435703</v>
+        <v>40166.39017880355</v>
       </c>
       <c r="E67">
-        <v>1770.414728682171</v>
+        <v>1931.751937984496</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2268,10 +2268,10 @@
         <v>192</v>
       </c>
       <c r="D68">
-        <v>1189489861.457771</v>
+        <v>1500454075.774431</v>
       </c>
       <c r="E68">
-        <v>1044.39300382635</v>
+        <v>1319.91001776502</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2285,10 +2285,10 @@
         <v>193</v>
       </c>
       <c r="D69">
-        <v>10555.16114098538</v>
+        <v>14286.47393257448</v>
       </c>
       <c r="E69">
-        <v>974.4529914529915</v>
+        <v>1318.923076923077</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2302,10 +2302,10 @@
         <v>194</v>
       </c>
       <c r="D70">
-        <v>44764126.23149449</v>
+        <v>42515330.88350558</v>
       </c>
       <c r="E70">
-        <v>1584.701061320755</v>
+        <v>1505.150033978254</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2319,10 +2319,10 @@
         <v>195</v>
       </c>
       <c r="D71">
-        <v>281730.7099651231</v>
+        <v>379454.206498351</v>
       </c>
       <c r="E71">
-        <v>808.7585212375459</v>
+        <v>1089.375196643943</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2336,10 +2336,10 @@
         <v>196</v>
       </c>
       <c r="D72">
-        <v>3482.928884403856</v>
+        <v>5717.902950766034</v>
       </c>
       <c r="E72">
-        <v>995.8717948717949</v>
+        <v>1634.74358974359</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2353,10 +2353,10 @@
         <v>197</v>
       </c>
       <c r="D73">
-        <v>387692578.7658371</v>
+        <v>513999869.451361</v>
       </c>
       <c r="E73">
-        <v>1391.520535773332</v>
+        <v>1844.670336613382</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2370,10 +2370,10 @@
         <v>198</v>
       </c>
       <c r="D74">
-        <v>117070.7597871874</v>
+        <v>189051.1493970983</v>
       </c>
       <c r="E74">
-        <v>1227.524829600779</v>
+        <v>1982.32035053554</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2387,10 +2387,10 @@
         <v>199</v>
       </c>
       <c r="D75">
-        <v>7351827.797510061</v>
+        <v>8979403.266229682</v>
       </c>
       <c r="E75">
-        <v>1656.828792200174</v>
+        <v>2023.587778384611</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2404,10 +2404,10 @@
         <v>200</v>
       </c>
       <c r="D76">
-        <v>292351.7226629499</v>
+        <v>897814.5109226579</v>
       </c>
       <c r="E76">
-        <v>410.4027397260274</v>
+        <v>1260.205088062622</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2421,10 +2421,10 @@
         <v>201</v>
       </c>
       <c r="D77">
-        <v>2953.014213225239</v>
+        <v>2135.459203104436</v>
       </c>
       <c r="E77">
-        <v>2303.428571428572</v>
+        <v>1665.714285714286</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2438,10 +2438,10 @@
         <v>202</v>
       </c>
       <c r="D78">
-        <v>25283936.63848993</v>
+        <v>30945062.1871177</v>
       </c>
       <c r="E78">
-        <v>1326.528696004867</v>
+        <v>1624.313998292719</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2455,10 +2455,10 @@
         <v>203</v>
       </c>
       <c r="D79">
-        <v>131230847.3054743</v>
+        <v>229139437.7912835</v>
       </c>
       <c r="E79">
-        <v>866.1215927937589</v>
+        <v>1512.348869734489</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2472,10 +2472,10 @@
         <v>204</v>
       </c>
       <c r="D80">
-        <v>356514396.2739802</v>
+        <v>219904281.9405009</v>
       </c>
       <c r="E80">
-        <v>1627.915802194169</v>
+        <v>1004.183961456167</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2489,10 +2489,10 @@
         <v>205</v>
       </c>
       <c r="D81">
-        <v>6136826.238937556</v>
+        <v>6462010.464691211</v>
       </c>
       <c r="E81">
-        <v>1795.271635257061</v>
+        <v>1890.376781805563</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2506,10 +2506,10 @@
         <v>206</v>
       </c>
       <c r="D82">
-        <v>56937404.92539299</v>
+        <v>58844592.44775937</v>
       </c>
       <c r="E82">
-        <v>934.4333945828332</v>
+        <v>965.7305922285461</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2523,10 +2523,10 @@
         <v>207</v>
       </c>
       <c r="D83">
-        <v>338544556.9231802</v>
+        <v>308973778.6640552</v>
       </c>
       <c r="E83">
-        <v>1267.100101234067</v>
+        <v>1156.430100610713</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2540,10 +2540,10 @@
         <v>208</v>
       </c>
       <c r="D84">
-        <v>30225615.80433411</v>
+        <v>42957749.6783545</v>
       </c>
       <c r="E84">
-        <v>1182.439687227206</v>
+        <v>1680.50882413031</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2557,10 +2557,10 @@
         <v>209</v>
       </c>
       <c r="D85">
-        <v>327763.3737940139</v>
+        <v>283596.8366565116</v>
       </c>
       <c r="E85">
-        <v>1706.821083172147</v>
+        <v>1476.810444874275</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2574,10 +2574,10 @@
         <v>210</v>
       </c>
       <c r="D86">
-        <v>27526957.84250486</v>
+        <v>29744493.15387358</v>
       </c>
       <c r="E86">
-        <v>1105.645854683621</v>
+        <v>1194.475169538242</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2591,10 +2591,10 @@
         <v>211</v>
       </c>
       <c r="D87">
-        <v>89698741.31954719</v>
+        <v>73681235.97221233</v>
       </c>
       <c r="E87">
-        <v>1411.928885606482</v>
+        <v>1159.720613942352</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2608,10 +2608,10 @@
         <v>212</v>
       </c>
       <c r="D88">
-        <v>54401.30040382097</v>
+        <v>87472.20567725862</v>
       </c>
       <c r="E88">
-        <v>1050.719642857143</v>
+        <v>1689.460714285714</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2625,10 +2625,10 @@
         <v>213</v>
       </c>
       <c r="D89">
-        <v>3867554.240071271</v>
+        <v>13902095.40192436</v>
       </c>
       <c r="E89">
-        <v>377.0038487698867</v>
+        <v>1355.788981237247</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2642,10 +2642,10 @@
         <v>214</v>
       </c>
       <c r="D90">
-        <v>205395.5123043726</v>
+        <v>884846.3118432672</v>
       </c>
       <c r="E90">
-        <v>293.1562259306804</v>
+        <v>1263.573812580231</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2659,10 +2659,10 @@
         <v>215</v>
       </c>
       <c r="D91">
-        <v>374361589.787271</v>
+        <v>188917580.9767818</v>
       </c>
       <c r="E91">
-        <v>2033.52288197886</v>
+        <v>1026.624218185191</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2676,10 +2676,10 @@
         <v>216</v>
       </c>
       <c r="D92">
-        <v>1902617.594111876</v>
+        <v>2678170.017769352</v>
       </c>
       <c r="E92">
-        <v>1210.974982586487</v>
+        <v>1704.69143255166</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2693,10 +2693,10 @@
         <v>217</v>
       </c>
       <c r="D93">
-        <v>71652089.31050132</v>
+        <v>85415059.41860153</v>
       </c>
       <c r="E93">
-        <v>1197.190713616034</v>
+        <v>1426.553704870664</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2710,10 +2710,10 @@
         <v>218</v>
       </c>
       <c r="D94">
-        <v>263814130.1517665</v>
+        <v>167821043.2114812</v>
       </c>
       <c r="E94">
-        <v>1749.2677431227</v>
+        <v>1112.721869502838</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2727,10 +2727,10 @@
         <v>219</v>
       </c>
       <c r="D95">
-        <v>43804245.47483179</v>
+        <v>44103174.68111394</v>
       </c>
       <c r="E95">
-        <v>1177.842581078392</v>
+        <v>1185.911828491842</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2744,10 +2744,10 @@
         <v>220</v>
       </c>
       <c r="D96">
-        <v>32011506.94632489</v>
+        <v>19906953.21557491</v>
       </c>
       <c r="E96">
-        <v>1759.243171499517</v>
+        <v>1093.975621032509</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2761,10 +2761,10 @@
         <v>221</v>
       </c>
       <c r="D97">
-        <v>10856347.28143139</v>
+        <v>24498848.99690348</v>
       </c>
       <c r="E97">
-        <v>599.3266821273482</v>
+        <v>1352.99566270811</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2778,10 +2778,10 @@
         <v>222</v>
       </c>
       <c r="D98">
-        <v>109077254.6970277</v>
+        <v>74901154.87558669</v>
       </c>
       <c r="E98">
-        <v>1757.728350567348</v>
+        <v>1206.905962823804</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2795,10 +2795,10 @@
         <v>223</v>
       </c>
       <c r="D99">
-        <v>164029.9045033109</v>
+        <v>258534.7751336556</v>
       </c>
       <c r="E99">
-        <v>1108.540384615385</v>
+        <v>1747.217307692308</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2812,10 +2812,10 @@
         <v>224</v>
       </c>
       <c r="D100">
-        <v>42349.13451036329</v>
+        <v>46665.14073147309</v>
       </c>
       <c r="E100">
-        <v>1240.627659574468</v>
+        <v>1367.074468085106</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2829,10 +2829,10 @@
         <v>225</v>
       </c>
       <c r="D101">
-        <v>1513.091554883627</v>
+        <v>2065.476045824522</v>
       </c>
       <c r="E101">
-        <v>1195.5</v>
+        <v>1631.928571428571</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2846,10 +2846,10 @@
         <v>226</v>
       </c>
       <c r="D102">
-        <v>229887502.4849187</v>
+        <v>312169448.8636157</v>
       </c>
       <c r="E102">
-        <v>832.1360040037247</v>
+        <v>1131.338233422573</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2863,10 +2863,10 @@
         <v>227</v>
       </c>
       <c r="D103">
-        <v>178293.4245261245</v>
+        <v>160793.7586080629</v>
       </c>
       <c r="E103">
-        <v>1868.631683168317</v>
+        <v>1685.229702970297</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2880,10 +2880,10 @@
         <v>228</v>
       </c>
       <c r="D104">
-        <v>1068334781.501158</v>
+        <v>1189791208.261488</v>
       </c>
       <c r="E104">
-        <v>1074.801685557287</v>
+        <v>1197.830376947605</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2897,10 +2897,10 @@
         <v>229</v>
       </c>
       <c r="D105">
-        <v>36989.01936800967</v>
+        <v>57750.21363319331</v>
       </c>
       <c r="E105">
-        <v>1137.627906976744</v>
+        <v>1776.154069767442</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2914,10 +2914,10 @@
         <v>230</v>
       </c>
       <c r="D106">
-        <v>27492122.95349921</v>
+        <v>44099634.98630861</v>
       </c>
       <c r="E106">
-        <v>821.2438767154869</v>
+        <v>1317.29839335826</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2931,10 +2931,10 @@
         <v>231</v>
       </c>
       <c r="D107">
-        <v>4060197.169367434</v>
+        <v>7476743.008111606</v>
       </c>
       <c r="E107">
-        <v>748.367518828525</v>
+        <v>1378.106697887361</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2948,10 +2948,10 @@
         <v>232</v>
       </c>
       <c r="D108">
-        <v>494354188.5066121</v>
+        <v>498384450.1408753</v>
       </c>
       <c r="E108">
-        <v>1753.440718430425</v>
+        <v>1766.183582734995</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2965,10 +2965,10 @@
         <v>233</v>
       </c>
       <c r="D109">
-        <v>11670463.43427525</v>
+        <v>13732105.65856258</v>
       </c>
       <c r="E109">
-        <v>2050.557882018009</v>
+        <v>2412.782524496822</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2982,10 +2982,10 @@
         <v>234</v>
       </c>
       <c r="D110">
-        <v>643695218.3968438</v>
+        <v>883603499.068287</v>
       </c>
       <c r="E110">
-        <v>1428.012751533401</v>
+        <v>1960.252711751923</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2999,10 +2999,10 @@
         <v>235</v>
       </c>
       <c r="D111">
-        <v>7987.190712559818</v>
+        <v>9647.263211849902</v>
       </c>
       <c r="E111">
-        <v>1358.876923076923</v>
+        <v>1641.307692307692</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3016,10 +3016,10 @@
         <v>236</v>
       </c>
       <c r="D112">
-        <v>305640.6725784767</v>
+        <v>576408.0191377031</v>
       </c>
       <c r="E112">
-        <v>795.6493157380254</v>
+        <v>1501.065738025415</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3033,10 +3033,10 @@
         <v>237</v>
       </c>
       <c r="D113">
-        <v>20568033.97069372</v>
+        <v>32542490.244315</v>
       </c>
       <c r="E113">
-        <v>1352.330506062173</v>
+        <v>2139.609685533861</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3050,10 +3050,10 @@
         <v>238</v>
       </c>
       <c r="D114">
-        <v>28839.5482620871</v>
+        <v>46445.14268056003</v>
       </c>
       <c r="E114">
-        <v>1046.261744966443</v>
+        <v>1684.969798657718</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3067,10 +3067,10 @@
         <v>239</v>
       </c>
       <c r="D115">
-        <v>262583.5400000879</v>
+        <v>410370.1619548642</v>
       </c>
       <c r="E115">
-        <v>1134.756379585327</v>
+        <v>1773.413875598086</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3084,10 +3084,10 @@
         <v>240</v>
       </c>
       <c r="D116">
-        <v>54918.09162578079</v>
+        <v>71405.21371173246</v>
       </c>
       <c r="E116">
-        <v>1160.878243512974</v>
+        <v>1509.389221556886</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3101,10 +3101,10 @@
         <v>241</v>
       </c>
       <c r="D117">
-        <v>422591289.6582029</v>
+        <v>309763710.7169283</v>
       </c>
       <c r="E117">
-        <v>1686.777762892651</v>
+        <v>1236.115272626713</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3118,10 +3118,10 @@
         <v>242</v>
       </c>
       <c r="D118">
-        <v>787508.0904699838</v>
+        <v>1526907.450323453</v>
       </c>
       <c r="E118">
-        <v>751.4234661889834</v>
+        <v>1456.671204657412</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3135,10 +3135,10 @@
         <v>243</v>
       </c>
       <c r="D119">
-        <v>1079641.284887598</v>
+        <v>1745577.347744008</v>
       </c>
       <c r="E119">
-        <v>1035.583034034548</v>
+        <v>1674.336668376945</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3152,10 +3152,10 @@
         <v>244</v>
       </c>
       <c r="D120">
-        <v>15299645.67276767</v>
+        <v>11837451.79727602</v>
       </c>
       <c r="E120">
-        <v>1868.293083382776</v>
+        <v>1445.479222764821</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3169,10 +3169,10 @@
         <v>245</v>
       </c>
       <c r="D121">
-        <v>84858.58688509553</v>
+        <v>162801.4089905406</v>
       </c>
       <c r="E121">
-        <v>867.6967741935484</v>
+        <v>1665.051612903226</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3186,10 +3186,10 @@
         <v>246</v>
       </c>
       <c r="D122">
-        <v>292619.6581079037</v>
+        <v>406599.1498494789</v>
       </c>
       <c r="E122">
-        <v>1124.76443980515</v>
+        <v>1562.707028531663</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3203,10 +3203,10 @@
         <v>247</v>
       </c>
       <c r="D123">
-        <v>2094390.756082637</v>
+        <v>3166698.134343897</v>
       </c>
       <c r="E123">
-        <v>793.0799548843912</v>
+        <v>1197.402562817219</v>
       </c>
     </row>
   </sheetData>

--- a/07_calc_country_stats/04_total_co2_stats/02_combine_tile_stats/country_total_co2_stats.xlsx
+++ b/07_calc_country_stats/04_total_co2_stats/02_combine_tile_stats/country_total_co2_stats.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="tot_c" sheetId="1" r:id="rId1"/>
+    <sheet name="tot_co2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1146,10 +1146,10 @@
         <v>126</v>
       </c>
       <c r="D2">
-        <v>45464255.76516845</v>
+        <v>45472748.4106196</v>
       </c>
       <c r="E2">
-        <v>1617.990889116251</v>
+        <v>1618.293185287063</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>127</v>
       </c>
       <c r="D3">
-        <v>4656.045633351849</v>
+        <v>4655.859849663792</v>
       </c>
       <c r="E3">
-        <v>1431.5</v>
+        <v>1431.442816840278</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>128</v>
       </c>
       <c r="D4">
-        <v>10125160.52766784</v>
+        <v>10124738.3070376</v>
       </c>
       <c r="E4">
-        <v>1372.57504544122</v>
+        <v>1372.517630185429</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>129</v>
       </c>
       <c r="D5">
-        <v>73008.99169174829</v>
+        <v>73007.94479353374</v>
       </c>
       <c r="E5">
-        <v>1230.871757925072</v>
+        <v>1230.8540651173</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>130</v>
       </c>
       <c r="D6">
-        <v>321473627.8008416</v>
+        <v>321490524.8373742</v>
       </c>
       <c r="E6">
-        <v>2146.046861718424</v>
+        <v>2146.158837992869</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>131</v>
       </c>
       <c r="D7">
-        <v>10173447.78934383</v>
+        <v>10175097.4734873</v>
       </c>
       <c r="E7">
-        <v>1385.535381610577</v>
+        <v>1385.760030110677</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>132</v>
       </c>
       <c r="D8">
-        <v>87614677.91777363</v>
+        <v>87595532.637982</v>
       </c>
       <c r="E8">
-        <v>1794.203417697035</v>
+        <v>1793.811218950997</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>133</v>
       </c>
       <c r="D9">
-        <v>70736980.49711974</v>
+        <v>70739712.05940147</v>
       </c>
       <c r="E9">
-        <v>1353.49193149365</v>
+        <v>1353.544101288183</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>134</v>
       </c>
       <c r="D10">
-        <v>24268931.04512037</v>
+        <v>24271615.8591877</v>
       </c>
       <c r="E10">
-        <v>2111.729178162292</v>
+        <v>2111.962737702083</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1299,10 +1299,10 @@
         <v>135</v>
       </c>
       <c r="D11">
-        <v>42510230.86710669</v>
+        <v>42488128.60043553</v>
       </c>
       <c r="E11">
-        <v>1430.819165699659</v>
+        <v>1430.076553896716</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1316,10 +1316,10 @@
         <v>136</v>
       </c>
       <c r="D12">
-        <v>164075.2378826633</v>
+        <v>164079.3760000519</v>
       </c>
       <c r="E12">
-        <v>1199.031390134529</v>
+        <v>1199.060498078155</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1333,10 +1333,10 @@
         <v>137</v>
       </c>
       <c r="D13">
-        <v>72980680.41642578</v>
+        <v>72972775.38657045</v>
       </c>
       <c r="E13">
-        <v>938.4114857909349</v>
+        <v>938.310062377729</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1350,10 +1350,10 @@
         <v>138</v>
       </c>
       <c r="D14">
-        <v>20444125.30414285</v>
+        <v>20448129.03530364</v>
       </c>
       <c r="E14">
-        <v>988.30665117057</v>
+        <v>988.4996465014373</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1367,10 +1367,10 @@
         <v>139</v>
       </c>
       <c r="D15">
-        <v>6496323.953114367</v>
+        <v>6497361.28861241</v>
       </c>
       <c r="E15">
-        <v>1211.215403617115</v>
+        <v>1211.408853661226</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1384,10 +1384,10 @@
         <v>140</v>
       </c>
       <c r="D16">
-        <v>343685635.9854999</v>
+        <v>343768396.8932407</v>
       </c>
       <c r="E16">
-        <v>1743.327113485519</v>
+        <v>1743.746820853682</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1401,10 +1401,10 @@
         <v>141</v>
       </c>
       <c r="D17">
-        <v>39220097.39113197</v>
+        <v>39221788.36566435</v>
       </c>
       <c r="E17">
-        <v>1654.31235131204</v>
+        <v>1654.383741457292</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1418,10 +1418,10 @@
         <v>142</v>
       </c>
       <c r="D18">
-        <v>3816148.382452946</v>
+        <v>3817240.668931461</v>
       </c>
       <c r="E18">
-        <v>1900.220194302962</v>
+        <v>1900.76396847293</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1435,10 +1435,10 @@
         <v>143</v>
       </c>
       <c r="D19">
-        <v>142346676.4974151</v>
+        <v>142302387.7142127</v>
       </c>
       <c r="E19">
-        <v>1121.341329553487</v>
+        <v>1120.992465329145</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1452,10 +1452,10 @@
         <v>144</v>
       </c>
       <c r="D20">
-        <v>1428906.858323533</v>
+        <v>1429091.743176481</v>
       </c>
       <c r="E20">
-        <v>2045.24259309595</v>
+        <v>2045.507338950802</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1469,10 +1469,10 @@
         <v>145</v>
       </c>
       <c r="D21">
-        <v>109986458.2349266</v>
+        <v>109984422.7999672</v>
       </c>
       <c r="E21">
-        <v>2091.609810240269</v>
+        <v>2091.570902078116</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1486,10 +1486,10 @@
         <v>146</v>
       </c>
       <c r="D22">
-        <v>24312846.85945458</v>
+        <v>24315927.24862699</v>
       </c>
       <c r="E22">
-        <v>1617.599600927187</v>
+        <v>1617.804413809532</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1503,10 +1503,10 @@
         <v>147</v>
       </c>
       <c r="D23">
-        <v>6125426462.841192</v>
+        <v>6125143256.213975</v>
       </c>
       <c r="E23">
-        <v>2110.784782031037</v>
+        <v>2110.687249615897</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1520,10 +1520,10 @@
         <v>148</v>
       </c>
       <c r="D24">
-        <v>330340187.3241624</v>
+        <v>330378449.2950215</v>
       </c>
       <c r="E24">
-        <v>817.1164396951417</v>
+        <v>817.2155646095753</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1537,10 +1537,10 @@
         <v>149</v>
       </c>
       <c r="D25">
-        <v>15096454.80875204</v>
+        <v>15097170.24367535</v>
       </c>
       <c r="E25">
-        <v>1545.43243418433</v>
+        <v>1545.505662508913</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1554,10 +1554,10 @@
         <v>150</v>
       </c>
       <c r="D26">
-        <v>1563832.601411637</v>
+        <v>1563575.972270831</v>
       </c>
       <c r="E26">
-        <v>1518.993105767614</v>
+        <v>1518.744269694804</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1571,10 +1571,10 @@
         <v>151</v>
       </c>
       <c r="D27">
-        <v>75773370.22760481</v>
+        <v>75786377.65792114</v>
       </c>
       <c r="E27">
-        <v>1397.054175061563</v>
+        <v>1397.293973514104</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1588,10 +1588,10 @@
         <v>152</v>
       </c>
       <c r="D28">
-        <v>12958974.26810303</v>
+        <v>12961071.26062763</v>
       </c>
       <c r="E28">
-        <v>1578.107773365745</v>
+        <v>1578.363149384576</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1605,10 +1605,10 @@
         <v>153</v>
       </c>
       <c r="D29">
-        <v>273551.8039477791</v>
+        <v>273557.7433998705</v>
       </c>
       <c r="E29">
-        <v>1692.577955454026</v>
+        <v>1692.614613078241</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1622,10 +1622,10 @@
         <v>154</v>
       </c>
       <c r="D30">
-        <v>4013079.232943405</v>
+        <v>4013930.239848116</v>
       </c>
       <c r="E30">
-        <v>1158.025966941247</v>
+        <v>1158.271493857741</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1639,10 +1639,10 @@
         <v>155</v>
       </c>
       <c r="D31">
-        <v>616660200.0995657</v>
+        <v>616620622.0118632</v>
       </c>
       <c r="E31">
-        <v>1156.829967900323</v>
+        <v>1156.758050036049</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1656,10 +1656,10 @@
         <v>156</v>
       </c>
       <c r="D32">
-        <v>3433071.580849309</v>
+        <v>3433348.707805889</v>
       </c>
       <c r="E32">
-        <v>1765.823860678624</v>
+        <v>1765.966447399555</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1673,10 +1673,10 @@
         <v>157</v>
       </c>
       <c r="D33">
-        <v>579304.7188835373</v>
+        <v>579425.4952037233</v>
       </c>
       <c r="E33">
-        <v>1478.922305764411</v>
+        <v>1479.230596021303</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1690,10 +1690,10 @@
         <v>158</v>
       </c>
       <c r="D34">
-        <v>1040479935.261308</v>
+        <v>1040355282.524782</v>
       </c>
       <c r="E34">
-        <v>1992.073399844249</v>
+        <v>1991.834722352546</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1707,10 +1707,10 @@
         <v>159</v>
       </c>
       <c r="D35">
-        <v>1097299.189541405</v>
+        <v>1097522.610155026</v>
       </c>
       <c r="E35">
-        <v>1624.553711071478</v>
+        <v>1624.884346275209</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1724,10 +1724,10 @@
         <v>160</v>
       </c>
       <c r="D36">
-        <v>1375519431.864559</v>
+        <v>1375747813.102886</v>
       </c>
       <c r="E36">
-        <v>1639.104054692071</v>
+        <v>1639.376073673453</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1741,10 +1741,10 @@
         <v>161</v>
       </c>
       <c r="D37">
-        <v>105370766.394863</v>
+        <v>105373237.8985364</v>
       </c>
       <c r="E37">
-        <v>1420.605161393237</v>
+        <v>1420.637877156448</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1758,10 +1758,10 @@
         <v>162</v>
       </c>
       <c r="D38">
-        <v>100318.767223311</v>
+        <v>100338.2681372595</v>
       </c>
       <c r="E38">
-        <v>2095.714285714286</v>
+        <v>2096.121527777778</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1775,10 +1775,10 @@
         <v>163</v>
       </c>
       <c r="D39">
-        <v>98613116.68594575</v>
+        <v>98613287.68958484</v>
       </c>
       <c r="E39">
-        <v>1220.689107542174</v>
+        <v>1220.691307752224</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1792,10 +1792,10 @@
         <v>164</v>
       </c>
       <c r="D40">
-        <v>213064.8764220702</v>
+        <v>213013.9759393168</v>
       </c>
       <c r="E40">
-        <v>1709.289569657185</v>
+        <v>1708.881373655179</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1809,10 +1809,10 @@
         <v>165</v>
       </c>
       <c r="D41">
-        <v>643806.3646645867</v>
+        <v>643770.3232879562</v>
       </c>
       <c r="E41">
-        <v>1406.364743349569</v>
+        <v>1406.286050487074</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1826,10 +1826,10 @@
         <v>166</v>
       </c>
       <c r="D42">
-        <v>8769919.578300025</v>
+        <v>8770327.106661558</v>
       </c>
       <c r="E42">
-        <v>1246.452407825433</v>
+        <v>1246.507460219836</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1843,10 +1843,10 @@
         <v>167</v>
       </c>
       <c r="D43">
-        <v>16837.54828647721</v>
+        <v>16834.59489367735</v>
       </c>
       <c r="E43">
-        <v>1945.152173913043</v>
+        <v>1944.81105638587</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1860,10 +1860,10 @@
         <v>168</v>
       </c>
       <c r="D44">
-        <v>200379.4332704028</v>
+        <v>200318.3690416327</v>
       </c>
       <c r="E44">
-        <v>1282.752902155887</v>
+        <v>1282.361905749033</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1877,10 +1877,10 @@
         <v>169</v>
       </c>
       <c r="D45">
-        <v>149439376.6572788</v>
+        <v>149452955.3465433</v>
       </c>
       <c r="E45">
-        <v>1360.188993682681</v>
+        <v>1360.312501712939</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1894,10 +1894,10 @@
         <v>170</v>
       </c>
       <c r="D46">
-        <v>438284668.3843989</v>
+        <v>438307908.2103472</v>
       </c>
       <c r="E46">
-        <v>1899.918964470184</v>
+        <v>1900.01977247844</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1911,10 +1911,10 @@
         <v>171</v>
       </c>
       <c r="D47">
-        <v>44770.69656074097</v>
+        <v>44768.69608800742</v>
       </c>
       <c r="E47">
-        <v>1408.822157434402</v>
+        <v>1408.7590196793</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1928,10 +1928,10 @@
         <v>172</v>
       </c>
       <c r="D48">
-        <v>428230697.2316887</v>
+        <v>428194622.5307452</v>
       </c>
       <c r="E48">
-        <v>1505.880261147427</v>
+        <v>1505.75333224406</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1945,10 +1945,10 @@
         <v>173</v>
       </c>
       <c r="D49">
-        <v>1737442.873960092</v>
+        <v>1737567.854956427</v>
       </c>
       <c r="E49">
-        <v>1204.199949219246</v>
+        <v>1204.286659216508</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1962,10 +1962,10 @@
         <v>174</v>
       </c>
       <c r="D50">
-        <v>68450.87756756743</v>
+        <v>68456.75950571313</v>
       </c>
       <c r="E50">
-        <v>1556.261603375527</v>
+        <v>1556.395305907173</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1979,10 +1979,10 @@
         <v>175</v>
       </c>
       <c r="D51">
-        <v>52204402.53587114</v>
+        <v>52198466.87974544</v>
       </c>
       <c r="E51">
-        <v>1416.804360655904</v>
+        <v>1416.643280613244</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1996,10 +1996,10 @@
         <v>176</v>
       </c>
       <c r="D52">
-        <v>620465565.4293307</v>
+        <v>620483959.8271444</v>
       </c>
       <c r="E52">
-        <v>1767.674672372198</v>
+        <v>1767.727165596335</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2013,10 +2013,10 @@
         <v>177</v>
       </c>
       <c r="D53">
-        <v>55724.9450133193</v>
+        <v>55748.45331033437</v>
       </c>
       <c r="E53">
-        <v>1241.873706004141</v>
+        <v>1242.39761257764</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2030,10 +2030,10 @@
         <v>178</v>
       </c>
       <c r="D54">
-        <v>57191.32601752336</v>
+        <v>57181.7744910503</v>
       </c>
       <c r="E54">
-        <v>1774.011428571428</v>
+        <v>1773.715178571429</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2047,10 +2047,10 @@
         <v>179</v>
       </c>
       <c r="D55">
-        <v>850194.0295380089</v>
+        <v>850203.1151814706</v>
       </c>
       <c r="E55">
-        <v>1260.424787997391</v>
+        <v>1260.438356164384</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2064,10 +2064,10 @@
         <v>180</v>
       </c>
       <c r="D56">
-        <v>256750720.7702571</v>
+        <v>256733145.0571994</v>
       </c>
       <c r="E56">
-        <v>1679.968438239907</v>
+        <v>1679.853296408475</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2081,10 +2081,10 @@
         <v>181</v>
       </c>
       <c r="D57">
-        <v>1430704.036155157</v>
+        <v>1430895.35604833</v>
       </c>
       <c r="E57">
-        <v>1648.452674467196</v>
+        <v>1648.67321353949</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2098,10 +2098,10 @@
         <v>182</v>
       </c>
       <c r="D58">
-        <v>1326046390.20908</v>
+        <v>1325631783.256149</v>
       </c>
       <c r="E58">
-        <v>1319.36638438216</v>
+        <v>1318.953366716461</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2115,10 +2115,10 @@
         <v>183</v>
       </c>
       <c r="D59">
-        <v>4243942.566263875</v>
+        <v>4242281.959226615</v>
       </c>
       <c r="E59">
-        <v>1482.90716854155</v>
+        <v>1482.326856464223</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2132,10 +2132,10 @@
         <v>184</v>
       </c>
       <c r="D60">
-        <v>368061.2681077803</v>
+        <v>368140.9052671393</v>
       </c>
       <c r="E60">
-        <v>2000.580303030303</v>
+        <v>2001.013131313131</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2149,10 +2149,10 @@
         <v>185</v>
       </c>
       <c r="D61">
-        <v>332476951.7220275</v>
+        <v>332596501.1135328</v>
       </c>
       <c r="E61">
-        <v>741.0569760177005</v>
+        <v>741.3233057103715</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2166,10 +2166,10 @@
         <v>186</v>
       </c>
       <c r="D62">
-        <v>219429.9640201587</v>
+        <v>219450.0431504498</v>
       </c>
       <c r="E62">
-        <v>1087.51253718657</v>
+        <v>1087.613123539099</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2183,10 +2183,10 @@
         <v>187</v>
       </c>
       <c r="D63">
-        <v>16426898.89798947</v>
+        <v>16426322.91298874</v>
       </c>
       <c r="E63">
-        <v>1887.151866249418</v>
+        <v>1887.085470108607</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2200,10 +2200,10 @@
         <v>188</v>
       </c>
       <c r="D64">
-        <v>337883316.1676034</v>
+        <v>337914318.8745664</v>
       </c>
       <c r="E64">
-        <v>1938.782204466785</v>
+        <v>1938.960265040958</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2217,10 +2217,10 @@
         <v>189</v>
       </c>
       <c r="D65">
-        <v>18690174.97109519</v>
+        <v>18684985.40800904</v>
       </c>
       <c r="E65">
-        <v>1050.189810412694</v>
+        <v>1049.898068270554</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2234,10 +2234,10 @@
         <v>190</v>
       </c>
       <c r="D66">
-        <v>285155226.689696</v>
+        <v>285267034.7758084</v>
       </c>
       <c r="E66">
-        <v>955.6334968720379</v>
+        <v>956.0082225592417</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2251,10 +2251,10 @@
         <v>191</v>
       </c>
       <c r="D67">
-        <v>40166.39017880355</v>
+        <v>40173.93474469568</v>
       </c>
       <c r="E67">
-        <v>1931.751937984496</v>
+        <v>1932.114825581395</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2268,10 +2268,10 @@
         <v>192</v>
       </c>
       <c r="D68">
-        <v>1500454075.774431</v>
+        <v>1500325419.75289</v>
       </c>
       <c r="E68">
-        <v>1319.91001776502</v>
+        <v>1319.799664429544</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2285,10 +2285,10 @@
         <v>193</v>
       </c>
       <c r="D69">
-        <v>14286.47393257448</v>
+        <v>14288.47575988836</v>
       </c>
       <c r="E69">
-        <v>1318.923076923077</v>
+        <v>1319.108039529915</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2302,10 +2302,10 @@
         <v>194</v>
       </c>
       <c r="D70">
-        <v>42515330.88350558</v>
+        <v>42511419.34571569</v>
       </c>
       <c r="E70">
-        <v>1505.150033978254</v>
+        <v>1505.011441843887</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2319,10 +2319,10 @@
         <v>195</v>
       </c>
       <c r="D71">
-        <v>379454.206498351</v>
+        <v>379167.4368749695</v>
       </c>
       <c r="E71">
-        <v>1089.375196643943</v>
+        <v>1088.551883275433</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2336,10 +2336,10 @@
         <v>196</v>
       </c>
       <c r="D72">
-        <v>5717.902950766034</v>
+        <v>5717.733664529113</v>
       </c>
       <c r="E72">
-        <v>1634.74358974359</v>
+        <v>1634.693359375</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2353,10 +2353,10 @@
         <v>197</v>
       </c>
       <c r="D73">
-        <v>513999869.451361</v>
+        <v>513988973.5427273</v>
       </c>
       <c r="E73">
-        <v>1844.670336613382</v>
+        <v>1844.631318394995</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2370,10 +2370,10 @@
         <v>198</v>
       </c>
       <c r="D74">
-        <v>189051.1493970983</v>
+        <v>189052.5796513208</v>
       </c>
       <c r="E74">
-        <v>1982.32035053554</v>
+        <v>1982.335017039922</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2387,10 +2387,10 @@
         <v>199</v>
       </c>
       <c r="D75">
-        <v>8979403.266229682</v>
+        <v>8980504.511689862</v>
       </c>
       <c r="E75">
-        <v>2023.587778384611</v>
+        <v>2023.836079252382</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2404,10 +2404,10 @@
         <v>200</v>
       </c>
       <c r="D76">
-        <v>897814.5109226579</v>
+        <v>897996.3981430646</v>
       </c>
       <c r="E76">
-        <v>1260.205088062622</v>
+        <v>1260.460600130463</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2421,10 +2421,10 @@
         <v>201</v>
       </c>
       <c r="D77">
-        <v>2135.459203104436</v>
+        <v>2135.040288142867</v>
       </c>
       <c r="E77">
-        <v>1665.714285714286</v>
+        <v>1665.387555803571</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2438,10 +2438,10 @@
         <v>202</v>
       </c>
       <c r="D78">
-        <v>30945062.1871177</v>
+        <v>30948256.29150444</v>
       </c>
       <c r="E78">
-        <v>1624.313998292719</v>
+        <v>1624.481599562332</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2455,10 +2455,10 @@
         <v>203</v>
       </c>
       <c r="D79">
-        <v>229139437.7912835</v>
+        <v>229126067.6924426</v>
       </c>
       <c r="E79">
-        <v>1512.348869734489</v>
+        <v>1512.260636597967</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2472,10 +2472,10 @@
         <v>204</v>
       </c>
       <c r="D80">
-        <v>219904281.9405009</v>
+        <v>219959958.0673674</v>
       </c>
       <c r="E80">
-        <v>1004.183961456167</v>
+        <v>1004.43811957422</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2489,10 +2489,10 @@
         <v>205</v>
       </c>
       <c r="D81">
-        <v>6462010.464691211</v>
+        <v>6462605.410733231</v>
       </c>
       <c r="E81">
-        <v>1890.376781805563</v>
+        <v>1890.550974153809</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2506,10 +2506,10 @@
         <v>206</v>
       </c>
       <c r="D82">
-        <v>58844592.44775937</v>
+        <v>58840966.71198107</v>
       </c>
       <c r="E82">
-        <v>965.7305922285461</v>
+        <v>965.6712161237411</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2523,10 +2523,10 @@
         <v>207</v>
       </c>
       <c r="D83">
-        <v>308973778.6640552</v>
+        <v>309125764.8845403</v>
       </c>
       <c r="E83">
-        <v>1156.430100610713</v>
+        <v>1156.998986244599</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2540,10 +2540,10 @@
         <v>208</v>
       </c>
       <c r="D84">
-        <v>42957749.6783545</v>
+        <v>42963310.15259454</v>
       </c>
       <c r="E84">
-        <v>1680.50882413031</v>
+        <v>1680.726350504263</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2557,10 +2557,10 @@
         <v>209</v>
       </c>
       <c r="D85">
-        <v>283596.8366565116</v>
+        <v>283565.8628548451</v>
       </c>
       <c r="E85">
-        <v>1476.810444874275</v>
+        <v>1476.649236505682</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2574,10 +2574,10 @@
         <v>210</v>
       </c>
       <c r="D86">
-        <v>29744493.15387358</v>
+        <v>29743220.60223328</v>
       </c>
       <c r="E86">
-        <v>1194.475169538242</v>
+        <v>1194.424043537938</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2591,10 +2591,10 @@
         <v>211</v>
       </c>
       <c r="D87">
-        <v>73681235.97221233</v>
+        <v>73679875.36824724</v>
       </c>
       <c r="E87">
-        <v>1159.720613942352</v>
+        <v>1159.69930368087</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2608,10 +2608,10 @@
         <v>212</v>
       </c>
       <c r="D88">
-        <v>87472.20567725862</v>
+        <v>87437.81822896245</v>
       </c>
       <c r="E88">
-        <v>1689.460714285714</v>
+        <v>1688.796428571429</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2625,10 +2625,10 @@
         <v>213</v>
       </c>
       <c r="D89">
-        <v>13902095.40192436</v>
+        <v>13902057.23486393</v>
       </c>
       <c r="E89">
-        <v>1355.788981237247</v>
+        <v>1355.785226561074</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2642,10 +2642,10 @@
         <v>214</v>
       </c>
       <c r="D90">
-        <v>884846.3118432672</v>
+        <v>884832.5778869204</v>
       </c>
       <c r="E90">
-        <v>1263.573812580231</v>
+        <v>1263.553949374198</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2659,10 +2659,10 @@
         <v>215</v>
       </c>
       <c r="D91">
-        <v>188917580.9767818</v>
+        <v>188885940.2646908</v>
       </c>
       <c r="E91">
-        <v>1026.624218185191</v>
+        <v>1026.452822342951</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2676,10 +2676,10 @@
         <v>216</v>
       </c>
       <c r="D92">
-        <v>2678170.017769352</v>
+        <v>2677638.143268061</v>
       </c>
       <c r="E92">
-        <v>1704.69143255166</v>
+        <v>1704.352899349896</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2693,10 +2693,10 @@
         <v>217</v>
       </c>
       <c r="D93">
-        <v>85415059.41860153</v>
+        <v>85424978.36378378</v>
       </c>
       <c r="E93">
-        <v>1426.553704870664</v>
+        <v>1426.719245193121</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2710,10 +2710,10 @@
         <v>218</v>
       </c>
       <c r="D94">
-        <v>167821043.2114812</v>
+        <v>167812370.1249923</v>
       </c>
       <c r="E94">
-        <v>1112.721869502838</v>
+        <v>1112.664375721259</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2727,10 +2727,10 @@
         <v>219</v>
       </c>
       <c r="D95">
-        <v>44103174.68111394</v>
+        <v>44106615.50649208</v>
       </c>
       <c r="E95">
-        <v>1185.911828491842</v>
+        <v>1186.004272781536</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2744,10 +2744,10 @@
         <v>220</v>
       </c>
       <c r="D96">
-        <v>19906953.21557491</v>
+        <v>19900471.24112527</v>
       </c>
       <c r="E96">
-        <v>1093.975621032509</v>
+        <v>1093.619587718569</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2761,10 +2761,10 @@
         <v>221</v>
       </c>
       <c r="D97">
-        <v>24498848.99690348</v>
+        <v>24500758.86550908</v>
       </c>
       <c r="E97">
-        <v>1352.99566270811</v>
+        <v>1353.101043604116</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2778,10 +2778,10 @@
         <v>222</v>
       </c>
       <c r="D98">
-        <v>74901154.87558669</v>
+        <v>74875482.13650902</v>
       </c>
       <c r="E98">
-        <v>1206.905962823804</v>
+        <v>1206.492179203545</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2795,10 +2795,10 @@
         <v>223</v>
       </c>
       <c r="D99">
-        <v>258534.7751336556</v>
+        <v>258482.0312767178</v>
       </c>
       <c r="E99">
-        <v>1747.217307692308</v>
+        <v>1746.860827323718</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2812,10 +2812,10 @@
         <v>224</v>
       </c>
       <c r="D100">
-        <v>46665.14073147309</v>
+        <v>46670.4457796885</v>
       </c>
       <c r="E100">
-        <v>1367.074468085106</v>
+        <v>1367.229886968085</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2829,10 +2829,10 @@
         <v>225</v>
       </c>
       <c r="D101">
-        <v>2065.476045824522</v>
+        <v>2065.960178952401</v>
       </c>
       <c r="E101">
-        <v>1631.928571428571</v>
+        <v>1632.311104910714</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2846,10 +2846,10 @@
         <v>226</v>
       </c>
       <c r="D102">
-        <v>312169448.8636157</v>
+        <v>312241252.5230138</v>
       </c>
       <c r="E102">
-        <v>1131.338233422573</v>
+        <v>1131.599975770061</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2863,10 +2863,10 @@
         <v>227</v>
       </c>
       <c r="D103">
-        <v>160793.7586080629</v>
+        <v>160826.9575157294</v>
       </c>
       <c r="E103">
-        <v>1685.229702970297</v>
+        <v>1685.577708268874</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2880,10 +2880,10 @@
         <v>228</v>
       </c>
       <c r="D104">
-        <v>1189791208.261488</v>
+        <v>1189858060.360587</v>
       </c>
       <c r="E104">
-        <v>1197.830376947605</v>
+        <v>1197.897078507148</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2897,10 +2897,10 @@
         <v>229</v>
       </c>
       <c r="D105">
-        <v>57750.21363319331</v>
+        <v>57740.77759799514</v>
       </c>
       <c r="E105">
-        <v>1776.154069767442</v>
+        <v>1775.863917151163</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2914,10 +2914,10 @@
         <v>230</v>
       </c>
       <c r="D106">
-        <v>44099634.98630861</v>
+        <v>44087968.73836616</v>
       </c>
       <c r="E106">
-        <v>1317.29839335826</v>
+        <v>1316.950089360006</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2931,10 +2931,10 @@
         <v>231</v>
       </c>
       <c r="D107">
-        <v>7476743.008111606</v>
+        <v>7477775.139801155</v>
       </c>
       <c r="E107">
-        <v>1378.106697887361</v>
+        <v>1378.296904214794</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2948,10 +2948,10 @@
         <v>232</v>
       </c>
       <c r="D108">
-        <v>498384450.1408753</v>
+        <v>498283830.3768146</v>
       </c>
       <c r="E108">
-        <v>1766.183582734995</v>
+        <v>1765.82697772561</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2965,10 +2965,10 @@
         <v>233</v>
       </c>
       <c r="D109">
-        <v>13732105.65856258</v>
+        <v>13731209.73662161</v>
       </c>
       <c r="E109">
-        <v>2412.782524496822</v>
+        <v>2412.625087156134</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2982,10 +2982,10 @@
         <v>234</v>
       </c>
       <c r="D110">
-        <v>883603499.068287</v>
+        <v>883630579.8894449</v>
       </c>
       <c r="E110">
-        <v>1960.252711751923</v>
+        <v>1960.313223678025</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2999,10 +2999,10 @@
         <v>235</v>
       </c>
       <c r="D111">
-        <v>9647.263211849902</v>
+        <v>9647.951357462525</v>
       </c>
       <c r="E111">
-        <v>1641.307692307692</v>
+        <v>1641.424879807692</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3016,10 +3016,10 @@
         <v>236</v>
       </c>
       <c r="D112">
-        <v>576408.0191377031</v>
+        <v>576463.6117604286</v>
       </c>
       <c r="E112">
-        <v>1501.065738025415</v>
+        <v>1501.210267962831</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3033,10 +3033,10 @@
         <v>237</v>
       </c>
       <c r="D113">
-        <v>32542490.244315</v>
+        <v>32544199.28272945</v>
       </c>
       <c r="E113">
-        <v>2139.609685533861</v>
+        <v>2139.721866231344</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3050,10 +3050,10 @@
         <v>238</v>
       </c>
       <c r="D114">
-        <v>46445.14268056003</v>
+        <v>46432.07531788696</v>
       </c>
       <c r="E114">
-        <v>1684.969798657718</v>
+        <v>1684.495805369128</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3067,10 +3067,10 @@
         <v>239</v>
       </c>
       <c r="D115">
-        <v>410370.1619548642</v>
+        <v>410310.7030779923</v>
       </c>
       <c r="E115">
-        <v>1773.413875598086</v>
+        <v>1773.156897926635</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3084,10 +3084,10 @@
         <v>240</v>
       </c>
       <c r="D116">
-        <v>71405.21371173246</v>
+        <v>71381.23804469343</v>
       </c>
       <c r="E116">
-        <v>1509.389221556886</v>
+        <v>1508.88248502994</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3101,10 +3101,10 @@
         <v>241</v>
       </c>
       <c r="D117">
-        <v>309763710.7169283</v>
+        <v>309704042.3874471</v>
       </c>
       <c r="E117">
-        <v>1236.115272626713</v>
+        <v>1235.876880414075</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3118,10 +3118,10 @@
         <v>242</v>
       </c>
       <c r="D118">
-        <v>1526907.450323453</v>
+        <v>1526682.591281402</v>
       </c>
       <c r="E118">
-        <v>1456.671204657412</v>
+        <v>1456.456761153717</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3135,10 +3135,10 @@
         <v>243</v>
       </c>
       <c r="D119">
-        <v>1745577.347744008</v>
+        <v>1744769.947824448</v>
       </c>
       <c r="E119">
-        <v>1674.336668376945</v>
+        <v>1673.561334872584</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3152,10 +3152,10 @@
         <v>244</v>
       </c>
       <c r="D120">
-        <v>11837451.79727602</v>
+        <v>11836138.70656691</v>
       </c>
       <c r="E120">
-        <v>1445.479222764821</v>
+        <v>1445.319064197207</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3169,10 +3169,10 @@
         <v>245</v>
       </c>
       <c r="D121">
-        <v>162801.4089905406</v>
+        <v>162811.6375503608</v>
       </c>
       <c r="E121">
-        <v>1665.051612903226</v>
+        <v>1665.15599078341</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3186,10 +3186,10 @@
         <v>246</v>
       </c>
       <c r="D122">
-        <v>406599.1498494789</v>
+        <v>406649.6499692686</v>
       </c>
       <c r="E122">
-        <v>1562.707028531663</v>
+        <v>1562.901270006959</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3203,10 +3203,10 @@
         <v>247</v>
       </c>
       <c r="D123">
-        <v>3166698.134343897</v>
+        <v>3167331.106822563</v>
       </c>
       <c r="E123">
-        <v>1197.402562817219</v>
+        <v>1197.639501637986</v>
       </c>
     </row>
   </sheetData>

--- a/07_calc_country_stats/04_total_co2_stats/02_combine_tile_stats/country_total_co2_stats.xlsx
+++ b/07_calc_country_stats/04_total_co2_stats/02_combine_tile_stats/country_total_co2_stats.xlsx
@@ -1146,10 +1146,10 @@
         <v>126</v>
       </c>
       <c r="D2">
-        <v>45472748.4106196</v>
+        <v>31295825.7483599</v>
       </c>
       <c r="E2">
-        <v>1618.293185287063</v>
+        <v>1114.224268294728</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>127</v>
       </c>
       <c r="D3">
-        <v>4655.859849663792</v>
+        <v>2638.792547086631</v>
       </c>
       <c r="E3">
-        <v>1431.442816840278</v>
+        <v>811.3147786458334</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>128</v>
       </c>
       <c r="D4">
-        <v>10124738.3070376</v>
+        <v>2908453.123790689</v>
       </c>
       <c r="E4">
-        <v>1372.517630185429</v>
+        <v>394.8573742493267</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>129</v>
       </c>
       <c r="D5">
-        <v>73007.94479353374</v>
+        <v>26588.26593343554</v>
       </c>
       <c r="E5">
-        <v>1230.8540651173</v>
+        <v>448.2715503351833</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>130</v>
       </c>
       <c r="D6">
-        <v>321490524.8373742</v>
+        <v>155909407.4523043</v>
       </c>
       <c r="E6">
-        <v>2146.158837992869</v>
+        <v>1041.887615014532</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1231,10 +1231,10 @@
         <v>131</v>
       </c>
       <c r="D7">
-        <v>10175097.4734873</v>
+        <v>4955429.775083225</v>
       </c>
       <c r="E7">
-        <v>1385.760030110677</v>
+        <v>674.001451149965</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1248,10 +1248,10 @@
         <v>132</v>
       </c>
       <c r="D8">
-        <v>87595532.637982</v>
+        <v>63389442.11160351</v>
       </c>
       <c r="E8">
-        <v>1793.811218950997</v>
+        <v>1298.254289412272</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1265,10 +1265,10 @@
         <v>133</v>
       </c>
       <c r="D9">
-        <v>70739712.05940147</v>
+        <v>51122095.74693485</v>
       </c>
       <c r="E9">
-        <v>1353.544101288183</v>
+        <v>978.0282265344919</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1282,10 +1282,10 @@
         <v>134</v>
       </c>
       <c r="D10">
-        <v>24271615.8591877</v>
+        <v>17845418.46684088</v>
       </c>
       <c r="E10">
-        <v>2111.962737702083</v>
+        <v>1552.795971521046</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1299,10 +1299,10 @@
         <v>135</v>
       </c>
       <c r="D11">
-        <v>42488128.60043553</v>
+        <v>21839670.16887224</v>
       </c>
       <c r="E11">
-        <v>1430.076553896716</v>
+        <v>735.4248915848279</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1316,10 +1316,10 @@
         <v>136</v>
       </c>
       <c r="D12">
-        <v>164079.3760000519</v>
+        <v>69729.38830251245</v>
       </c>
       <c r="E12">
-        <v>1199.060498078155</v>
+        <v>510.5840306694427</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1333,10 +1333,10 @@
         <v>137</v>
       </c>
       <c r="D13">
-        <v>72972775.38657045</v>
+        <v>64145533.24894646</v>
       </c>
       <c r="E13">
-        <v>938.310062377729</v>
+        <v>824.7359904957241</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1350,10 +1350,10 @@
         <v>138</v>
       </c>
       <c r="D14">
-        <v>20448129.03530364</v>
+        <v>20942920.42862182</v>
       </c>
       <c r="E14">
-        <v>988.4996465014373</v>
+        <v>1012.718870943197</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1367,10 +1367,10 @@
         <v>139</v>
       </c>
       <c r="D15">
-        <v>6497361.28861241</v>
+        <v>6973810.517424254</v>
       </c>
       <c r="E15">
-        <v>1211.408853661226</v>
+        <v>1300.277010917512</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1384,10 +1384,10 @@
         <v>140</v>
       </c>
       <c r="D16">
-        <v>343768396.8932407</v>
+        <v>262443822.6147272</v>
       </c>
       <c r="E16">
-        <v>1743.746820853682</v>
+        <v>1331.195997511356</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1401,10 +1401,10 @@
         <v>141</v>
       </c>
       <c r="D17">
-        <v>39221788.36566435</v>
+        <v>24108790.44656539</v>
       </c>
       <c r="E17">
-        <v>1654.383741457292</v>
+        <v>1016.907625176832</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1418,10 +1418,10 @@
         <v>142</v>
       </c>
       <c r="D18">
-        <v>3817240.668931461</v>
+        <v>2419998.246753924</v>
       </c>
       <c r="E18">
-        <v>1900.76396847293</v>
+        <v>1205.019402294378</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1435,10 +1435,10 @@
         <v>143</v>
       </c>
       <c r="D19">
-        <v>142302387.7142127</v>
+        <v>115922382.3162222</v>
       </c>
       <c r="E19">
-        <v>1120.992465329145</v>
+        <v>913.3017898395995</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1452,10 +1452,10 @@
         <v>144</v>
       </c>
       <c r="D20">
-        <v>1429091.743176481</v>
+        <v>838638.1436688519</v>
       </c>
       <c r="E20">
-        <v>2045.507338950802</v>
+        <v>1200.373742864909</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1469,10 +1469,10 @@
         <v>145</v>
       </c>
       <c r="D21">
-        <v>109984422.7999672</v>
+        <v>76525610.27451672</v>
       </c>
       <c r="E21">
-        <v>2091.570902078116</v>
+        <v>1455.22405258652</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1486,10 +1486,10 @@
         <v>146</v>
       </c>
       <c r="D22">
-        <v>24315927.24862699</v>
+        <v>14893189.27418598</v>
       </c>
       <c r="E22">
-        <v>1617.804413809532</v>
+        <v>990.8423604514661</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1503,10 +1503,10 @@
         <v>147</v>
       </c>
       <c r="D23">
-        <v>6125143256.213975</v>
+        <v>4449337724.869106</v>
       </c>
       <c r="E23">
-        <v>2110.687249615897</v>
+        <v>1533.215565247477</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1520,10 +1520,10 @@
         <v>148</v>
       </c>
       <c r="D24">
-        <v>330378449.2950215</v>
+        <v>322979545.3305889</v>
       </c>
       <c r="E24">
-        <v>817.2155646095753</v>
+        <v>801.0762501097159</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1537,10 +1537,10 @@
         <v>149</v>
       </c>
       <c r="D25">
-        <v>15097170.24367535</v>
+        <v>11289576.58104884</v>
       </c>
       <c r="E25">
-        <v>1545.505662508913</v>
+        <v>1155.699743497143</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1554,10 +1554,10 @@
         <v>150</v>
       </c>
       <c r="D26">
-        <v>1563575.972270831</v>
+        <v>1232285.571890017</v>
       </c>
       <c r="E26">
-        <v>1518.744269694804</v>
+        <v>1197.396808527409</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1571,10 +1571,10 @@
         <v>151</v>
       </c>
       <c r="D27">
-        <v>75786377.65792114</v>
+        <v>63761101.21352539</v>
       </c>
       <c r="E27">
-        <v>1397.293973514104</v>
+        <v>1175.783671402787</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1588,10 +1588,10 @@
         <v>152</v>
       </c>
       <c r="D28">
-        <v>12961071.26062763</v>
+        <v>9032616.842709085</v>
       </c>
       <c r="E28">
-        <v>1578.363149384576</v>
+        <v>1100.055744227998</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1605,10 +1605,10 @@
         <v>153</v>
       </c>
       <c r="D29">
-        <v>273557.7433998705</v>
+        <v>128626.3783608834</v>
       </c>
       <c r="E29">
-        <v>1692.614613078241</v>
+        <v>795.921045117076</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1622,10 +1622,10 @@
         <v>154</v>
       </c>
       <c r="D30">
-        <v>4013930.239848116</v>
+        <v>4024489.7085732</v>
       </c>
       <c r="E30">
-        <v>1158.271493857741</v>
+        <v>1158.551863880687</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1639,10 +1639,10 @@
         <v>155</v>
       </c>
       <c r="D31">
-        <v>616620622.0118632</v>
+        <v>590096006.0217203</v>
       </c>
       <c r="E31">
-        <v>1156.758050036049</v>
+        <v>1104.129408167049</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1656,10 +1656,10 @@
         <v>156</v>
       </c>
       <c r="D32">
-        <v>3433348.707805889</v>
+        <v>2045351.59230077</v>
       </c>
       <c r="E32">
-        <v>1765.966447399555</v>
+        <v>1052.039846670768</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1673,10 +1673,10 @@
         <v>157</v>
       </c>
       <c r="D33">
-        <v>579425.4952037233</v>
+        <v>297781.7493810699</v>
       </c>
       <c r="E33">
-        <v>1479.230596021303</v>
+        <v>760.213371674926</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1690,10 +1690,10 @@
         <v>158</v>
       </c>
       <c r="D34">
-        <v>1040355282.524782</v>
+        <v>805860110.0384079</v>
       </c>
       <c r="E34">
-        <v>1991.834722352546</v>
+        <v>1542.987587564197</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1707,10 +1707,10 @@
         <v>159</v>
       </c>
       <c r="D35">
-        <v>1097522.610155026</v>
+        <v>765862.8974391033</v>
       </c>
       <c r="E35">
-        <v>1624.884346275209</v>
+        <v>1133.838043627384</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1724,10 +1724,10 @@
         <v>160</v>
       </c>
       <c r="D36">
-        <v>1375747813.102886</v>
+        <v>1048947633.368236</v>
       </c>
       <c r="E36">
-        <v>1639.376073673453</v>
+        <v>1250.011446935135</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1741,10 +1741,10 @@
         <v>161</v>
       </c>
       <c r="D37">
-        <v>105373237.8985364</v>
+        <v>72352136.93937472</v>
       </c>
       <c r="E37">
-        <v>1420.637877156448</v>
+        <v>975.5755306766166</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1758,10 +1758,10 @@
         <v>162</v>
       </c>
       <c r="D38">
-        <v>100338.2681372595</v>
+        <v>78554.25743613523</v>
       </c>
       <c r="E38">
-        <v>2096.121527777778</v>
+        <v>1641.04154265873</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1775,10 +1775,10 @@
         <v>163</v>
       </c>
       <c r="D39">
-        <v>98613287.68958484</v>
+        <v>111878200.8096936</v>
       </c>
       <c r="E39">
-        <v>1220.691307752224</v>
+        <v>1384.888630410908</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1792,10 +1792,10 @@
         <v>164</v>
       </c>
       <c r="D40">
-        <v>213013.9759393168</v>
+        <v>157660.2167596191</v>
       </c>
       <c r="E40">
-        <v>1708.881373655179</v>
+        <v>1264.615802789934</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1809,10 +1809,10 @@
         <v>165</v>
       </c>
       <c r="D41">
-        <v>643770.3232879562</v>
+        <v>159604.9203193398</v>
       </c>
       <c r="E41">
-        <v>1406.286050487074</v>
+        <v>348.6488326620457</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1826,10 +1826,10 @@
         <v>166</v>
       </c>
       <c r="D42">
-        <v>8770327.106661558</v>
+        <v>3466447.401524473</v>
       </c>
       <c r="E42">
-        <v>1246.507460219836</v>
+        <v>493.0817551083992</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1843,10 +1843,10 @@
         <v>167</v>
       </c>
       <c r="D43">
-        <v>16834.59489367735</v>
+        <v>15651.99408574044</v>
       </c>
       <c r="E43">
-        <v>1944.81105638587</v>
+        <v>1808.143512228261</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1860,10 +1860,10 @@
         <v>168</v>
       </c>
       <c r="D44">
-        <v>200318.3690416327</v>
+        <v>158405.8441545616</v>
       </c>
       <c r="E44">
-        <v>1282.361905749033</v>
+        <v>1014.366656301824</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1877,10 +1877,10 @@
         <v>169</v>
       </c>
       <c r="D45">
-        <v>149452955.3465433</v>
+        <v>131784105.8749953</v>
       </c>
       <c r="E45">
-        <v>1360.312501712939</v>
+        <v>1199.021521363773</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1894,10 +1894,10 @@
         <v>170</v>
       </c>
       <c r="D46">
-        <v>438307908.2103472</v>
+        <v>336109591.7488723</v>
       </c>
       <c r="E46">
-        <v>1900.01977247844</v>
+        <v>1456.882906284347</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1911,10 +1911,10 @@
         <v>171</v>
       </c>
       <c r="D47">
-        <v>44768.69608800742</v>
+        <v>30082.53309926203</v>
       </c>
       <c r="E47">
-        <v>1408.7590196793</v>
+        <v>946.4568148688047</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1928,10 +1928,10 @@
         <v>172</v>
       </c>
       <c r="D48">
-        <v>428194622.5307452</v>
+        <v>350791134.4391927</v>
       </c>
       <c r="E48">
-        <v>1505.75333224406</v>
+        <v>1233.689351836742</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1945,10 +1945,10 @@
         <v>173</v>
       </c>
       <c r="D49">
-        <v>1737567.854956427</v>
+        <v>769886.0379572458</v>
       </c>
       <c r="E49">
-        <v>1204.286659216508</v>
+        <v>533.6181188110955</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1962,10 +1962,10 @@
         <v>174</v>
       </c>
       <c r="D50">
-        <v>68456.75950571313</v>
+        <v>33682.04038630249</v>
       </c>
       <c r="E50">
-        <v>1556.395305907173</v>
+        <v>765.773536392405</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1979,10 +1979,10 @@
         <v>175</v>
       </c>
       <c r="D51">
-        <v>52198466.87974544</v>
+        <v>48113481.96533144</v>
       </c>
       <c r="E51">
-        <v>1416.643280613244</v>
+        <v>1305.881843891978</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1996,10 +1996,10 @@
         <v>176</v>
       </c>
       <c r="D52">
-        <v>620483959.8271444</v>
+        <v>392081979.3396115</v>
       </c>
       <c r="E52">
-        <v>1767.727165596335</v>
+        <v>1117.353889317215</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2013,10 +2013,10 @@
         <v>177</v>
       </c>
       <c r="D53">
-        <v>55748.45331033437</v>
+        <v>36844.51160151773</v>
       </c>
       <c r="E53">
-        <v>1242.39761257764</v>
+        <v>821.1149877070393</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2030,10 +2030,10 @@
         <v>178</v>
       </c>
       <c r="D54">
-        <v>57181.7744910503</v>
+        <v>32255.1507256871</v>
       </c>
       <c r="E54">
-        <v>1773.715178571429</v>
+        <v>1000.519464285714</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2047,10 +2047,10 @@
         <v>179</v>
       </c>
       <c r="D55">
-        <v>850203.1151814706</v>
+        <v>694846.717812506</v>
       </c>
       <c r="E55">
-        <v>1260.438356164384</v>
+        <v>1030.123091976517</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2064,10 +2064,10 @@
         <v>180</v>
       </c>
       <c r="D56">
-        <v>256733145.0571994</v>
+        <v>211207245.9802378</v>
       </c>
       <c r="E56">
-        <v>1679.853296408475</v>
+        <v>1381.830328172565</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2081,10 +2081,10 @@
         <v>181</v>
       </c>
       <c r="D57">
-        <v>1430895.35604833</v>
+        <v>716681.4279195556</v>
       </c>
       <c r="E57">
-        <v>1648.67321353949</v>
+        <v>825.7504701211868</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2098,10 +2098,10 @@
         <v>182</v>
       </c>
       <c r="D58">
-        <v>1325631783.256149</v>
+        <v>1029937112.507398</v>
       </c>
       <c r="E58">
-        <v>1318.953366716461</v>
+        <v>1025.443316256298</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2115,10 +2115,10 @@
         <v>183</v>
       </c>
       <c r="D59">
-        <v>4242281.959226615</v>
+        <v>3358736.607321787</v>
       </c>
       <c r="E59">
-        <v>1482.326856464223</v>
+        <v>1173.600930293933</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2132,10 +2132,10 @@
         <v>184</v>
       </c>
       <c r="D60">
-        <v>368140.9052671393</v>
+        <v>152814.6487885978</v>
       </c>
       <c r="E60">
-        <v>2001.013131313131</v>
+        <v>830.616792929293</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2149,10 +2149,10 @@
         <v>185</v>
       </c>
       <c r="D61">
-        <v>332596501.1135328</v>
+        <v>371086440.5400367</v>
       </c>
       <c r="E61">
-        <v>741.3233057103715</v>
+        <v>827.1088777959914</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2166,10 +2166,10 @@
         <v>186</v>
       </c>
       <c r="D62">
-        <v>219450.0431504498</v>
+        <v>117368.7043928827</v>
       </c>
       <c r="E62">
-        <v>1087.613123539099</v>
+        <v>583.99176085051</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2183,10 +2183,10 @@
         <v>187</v>
       </c>
       <c r="D63">
-        <v>16426322.91298874</v>
+        <v>8761455.918014001</v>
       </c>
       <c r="E63">
-        <v>1887.085470108607</v>
+        <v>1006.353087676365</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2200,10 +2200,10 @@
         <v>188</v>
       </c>
       <c r="D64">
-        <v>337914318.8745664</v>
+        <v>252812609.9913602</v>
       </c>
       <c r="E64">
-        <v>1938.960265040958</v>
+        <v>1450.634250909781</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2217,10 +2217,10 @@
         <v>189</v>
       </c>
       <c r="D65">
-        <v>18684985.40800904</v>
+        <v>21002191.32036469</v>
       </c>
       <c r="E65">
-        <v>1049.898068270554</v>
+        <v>1180.112858298229</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2234,10 +2234,10 @@
         <v>190</v>
       </c>
       <c r="D66">
-        <v>285267034.7758084</v>
+        <v>301691531.6581213</v>
       </c>
       <c r="E66">
-        <v>956.0082225592417</v>
+        <v>1012.888239962085</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2251,10 +2251,10 @@
         <v>191</v>
       </c>
       <c r="D67">
-        <v>40173.93474469568</v>
+        <v>17571.53329715081</v>
       </c>
       <c r="E67">
-        <v>1932.114825581395</v>
+        <v>845.0835150193799</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2268,10 +2268,10 @@
         <v>192</v>
       </c>
       <c r="D68">
-        <v>1500325419.75289</v>
+        <v>1443719464.235448</v>
       </c>
       <c r="E68">
-        <v>1319.799664429544</v>
+        <v>1267.672100199499</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2285,10 +2285,10 @@
         <v>193</v>
       </c>
       <c r="D69">
-        <v>14288.47575988836</v>
+        <v>8019.683571648313</v>
       </c>
       <c r="E69">
-        <v>1319.108039529915</v>
+        <v>740.3770699786324</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2302,10 +2302,10 @@
         <v>194</v>
       </c>
       <c r="D70">
-        <v>42511419.34571569</v>
+        <v>36245638.05875827</v>
       </c>
       <c r="E70">
-        <v>1505.011441843887</v>
+        <v>1282.868671758408</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2319,10 +2319,10 @@
         <v>195</v>
       </c>
       <c r="D71">
-        <v>379167.4368749695</v>
+        <v>237547.1479147753</v>
       </c>
       <c r="E71">
-        <v>1088.551883275433</v>
+        <v>681.9564331246722</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2336,10 +2336,10 @@
         <v>196</v>
       </c>
       <c r="D72">
-        <v>5717.733664529113</v>
+        <v>4966.129369598505</v>
       </c>
       <c r="E72">
-        <v>1634.693359375</v>
+        <v>1419.010241386218</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2353,10 +2353,10 @@
         <v>197</v>
       </c>
       <c r="D73">
-        <v>513988973.5427273</v>
+        <v>356997641.6649694</v>
       </c>
       <c r="E73">
-        <v>1844.631318394995</v>
+        <v>1281.64670516506</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2370,10 +2370,10 @@
         <v>198</v>
       </c>
       <c r="D74">
-        <v>189052.5796513208</v>
+        <v>140742.0695177086</v>
       </c>
       <c r="E74">
-        <v>1982.335017039922</v>
+        <v>1475.764240506329</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2387,10 +2387,10 @@
         <v>199</v>
       </c>
       <c r="D75">
-        <v>8980504.511689862</v>
+        <v>4890590.931499673</v>
       </c>
       <c r="E75">
-        <v>2023.836079252382</v>
+        <v>1102.144976181807</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2404,10 +2404,10 @@
         <v>200</v>
       </c>
       <c r="D76">
-        <v>897996.3981430646</v>
+        <v>415734.3282440757</v>
       </c>
       <c r="E76">
-        <v>1260.460600130463</v>
+        <v>583.6188030006523</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2421,10 +2421,10 @@
         <v>201</v>
       </c>
       <c r="D77">
-        <v>2135.040288142867</v>
+        <v>1133.890231337682</v>
       </c>
       <c r="E77">
-        <v>1665.387555803571</v>
+        <v>884.4638671875</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2438,10 +2438,10 @@
         <v>202</v>
       </c>
       <c r="D78">
-        <v>30948256.29150444</v>
+        <v>23863515.0032778</v>
       </c>
       <c r="E78">
-        <v>1624.481599562332</v>
+        <v>1252.413163281187</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2455,10 +2455,10 @@
         <v>203</v>
       </c>
       <c r="D79">
-        <v>229126067.6924426</v>
+        <v>160498996.5486788</v>
       </c>
       <c r="E79">
-        <v>1512.260636597967</v>
+        <v>1059.285974587229</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2472,10 +2472,10 @@
         <v>204</v>
       </c>
       <c r="D80">
-        <v>219959958.0673674</v>
+        <v>204694777.4832667</v>
       </c>
       <c r="E80">
-        <v>1004.43811957422</v>
+        <v>934.7080173923964</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2489,10 +2489,10 @@
         <v>205</v>
       </c>
       <c r="D81">
-        <v>6462605.410733231</v>
+        <v>3548315.411347445</v>
       </c>
       <c r="E81">
-        <v>1890.550974153809</v>
+        <v>1038.016710266403</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2506,10 +2506,10 @@
         <v>206</v>
       </c>
       <c r="D82">
-        <v>58840966.71198107</v>
+        <v>47686550.1481353</v>
       </c>
       <c r="E82">
-        <v>965.6712161237411</v>
+        <v>782.6127488987987</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2523,10 +2523,10 @@
         <v>207</v>
       </c>
       <c r="D83">
-        <v>309125764.8845403</v>
+        <v>206017170.5621321</v>
       </c>
       <c r="E83">
-        <v>1156.998986244599</v>
+        <v>771.1484543217405</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2540,10 +2540,10 @@
         <v>208</v>
       </c>
       <c r="D84">
-        <v>42963310.15259454</v>
+        <v>37238687.68863689</v>
       </c>
       <c r="E84">
-        <v>1680.726350504263</v>
+        <v>1456.791405016623</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2557,10 +2557,10 @@
         <v>209</v>
       </c>
       <c r="D85">
-        <v>283565.8628548451</v>
+        <v>187705.8294300085</v>
       </c>
       <c r="E85">
-        <v>1476.649236505682</v>
+        <v>977.4583553705271</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2574,10 +2574,10 @@
         <v>210</v>
       </c>
       <c r="D86">
-        <v>29743220.60223328</v>
+        <v>33038509.17275928</v>
       </c>
       <c r="E86">
-        <v>1194.424043537938</v>
+        <v>1326.710636235493</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2591,10 +2591,10 @@
         <v>211</v>
       </c>
       <c r="D87">
-        <v>73679875.36824724</v>
+        <v>81216110.36216286</v>
       </c>
       <c r="E87">
-        <v>1159.69930368087</v>
+        <v>1278.396209312285</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2608,10 +2608,10 @@
         <v>212</v>
       </c>
       <c r="D88">
-        <v>87437.81822896245</v>
+        <v>84480.57692808789</v>
       </c>
       <c r="E88">
-        <v>1688.796428571429</v>
+        <v>1631.688616071429</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2625,10 +2625,10 @@
         <v>213</v>
       </c>
       <c r="D89">
-        <v>13902057.23486393</v>
+        <v>5950067.506156804</v>
       </c>
       <c r="E89">
-        <v>1355.785226561074</v>
+        <v>580.0336756996633</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2642,10 +2642,10 @@
         <v>214</v>
       </c>
       <c r="D90">
-        <v>884832.5778869204</v>
+        <v>402874.6256030966</v>
       </c>
       <c r="E90">
-        <v>1263.553949374198</v>
+        <v>575.321531510751</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2659,10 +2659,10 @@
         <v>215</v>
       </c>
       <c r="D91">
-        <v>188885940.2646908</v>
+        <v>220856138.7711295</v>
       </c>
       <c r="E91">
-        <v>1026.452822342951</v>
+        <v>1200.181962095216</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2676,10 +2676,10 @@
         <v>216</v>
       </c>
       <c r="D92">
-        <v>2677638.143268061</v>
+        <v>1764832.44708154</v>
       </c>
       <c r="E92">
-        <v>1704.352899349896</v>
+        <v>1123.246430229858</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2693,10 +2693,10 @@
         <v>217</v>
       </c>
       <c r="D93">
-        <v>85424978.36378378</v>
+        <v>57628634.8854757</v>
       </c>
       <c r="E93">
-        <v>1426.719245193121</v>
+        <v>962.188856281604</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2710,10 +2710,10 @@
         <v>218</v>
       </c>
       <c r="D94">
-        <v>167812370.1249923</v>
+        <v>172262222.0051198</v>
       </c>
       <c r="E94">
-        <v>1112.664375721259</v>
+        <v>1142.16340331818</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2727,10 +2727,10 @@
         <v>219</v>
       </c>
       <c r="D95">
-        <v>44106615.50649208</v>
+        <v>38986546.94719698</v>
       </c>
       <c r="E95">
-        <v>1186.004272781536</v>
+        <v>1048.353864902507</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2744,10 +2744,10 @@
         <v>220</v>
       </c>
       <c r="D96">
-        <v>19900471.24112527</v>
+        <v>20477452.42386553</v>
       </c>
       <c r="E96">
-        <v>1093.619587718569</v>
+        <v>1125.349407246418</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2761,10 +2761,10 @@
         <v>221</v>
       </c>
       <c r="D97">
-        <v>24500758.86550908</v>
+        <v>15482636.0214333</v>
       </c>
       <c r="E97">
-        <v>1353.101043604116</v>
+        <v>854.706203639032</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2778,10 +2778,10 @@
         <v>222</v>
       </c>
       <c r="D98">
-        <v>74875482.13650902</v>
+        <v>78114926.21175814</v>
       </c>
       <c r="E98">
-        <v>1206.492179203545</v>
+        <v>1258.726068098739</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2795,10 +2795,10 @@
         <v>223</v>
       </c>
       <c r="D99">
-        <v>258482.0312767178</v>
+        <v>203941.0956941626</v>
       </c>
       <c r="E99">
-        <v>1746.860827323718</v>
+        <v>1378.25875400641</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2812,10 +2812,10 @@
         <v>224</v>
       </c>
       <c r="D100">
-        <v>46670.4457796885</v>
+        <v>28064.3411912153</v>
       </c>
       <c r="E100">
-        <v>1367.229886968085</v>
+        <v>822.1567486702128</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2829,10 +2829,10 @@
         <v>225</v>
       </c>
       <c r="D101">
-        <v>2065.960178952401</v>
+        <v>1092.822274727077</v>
       </c>
       <c r="E101">
-        <v>1632.311104910714</v>
+        <v>863.4461495535714</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2846,10 +2846,10 @@
         <v>226</v>
       </c>
       <c r="D102">
-        <v>312241252.5230138</v>
+        <v>314798299.2090272</v>
       </c>
       <c r="E102">
-        <v>1131.599975770061</v>
+        <v>1141.144204571674</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2863,10 +2863,10 @@
         <v>227</v>
       </c>
       <c r="D103">
-        <v>160826.9575157294</v>
+        <v>109554.812054196</v>
       </c>
       <c r="E103">
-        <v>1685.577708268874</v>
+        <v>1148.362426032642</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2880,10 +2880,10 @@
         <v>228</v>
       </c>
       <c r="D104">
-        <v>1189858060.360587</v>
+        <v>878374626.4623671</v>
       </c>
       <c r="E104">
-        <v>1197.897078507148</v>
+        <v>885.3030327979884</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2897,10 +2897,10 @@
         <v>229</v>
       </c>
       <c r="D105">
-        <v>57740.77759799514</v>
+        <v>37052.87267934723</v>
       </c>
       <c r="E105">
-        <v>1775.863917151163</v>
+        <v>1139.545591842297</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2914,10 +2914,10 @@
         <v>230</v>
       </c>
       <c r="D106">
-        <v>44087968.73836616</v>
+        <v>40020982.82765159</v>
       </c>
       <c r="E106">
-        <v>1316.950089360006</v>
+        <v>1195.638153760242</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2931,10 +2931,10 @@
         <v>231</v>
       </c>
       <c r="D107">
-        <v>7477775.139801155</v>
+        <v>4891657.807338974</v>
       </c>
       <c r="E107">
-        <v>1378.296904214794</v>
+        <v>901.6126820054345</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2948,10 +2948,10 @@
         <v>232</v>
       </c>
       <c r="D108">
-        <v>498283830.3768146</v>
+        <v>374357257.3348014</v>
       </c>
       <c r="E108">
-        <v>1765.82697772561</v>
+        <v>1327.042755557389</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2965,10 +2965,10 @@
         <v>233</v>
       </c>
       <c r="D109">
-        <v>13731209.73662161</v>
+        <v>6937597.74720784</v>
       </c>
       <c r="E109">
-        <v>2412.625087156134</v>
+        <v>1218.979403285657</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2982,10 +2982,10 @@
         <v>234</v>
       </c>
       <c r="D110">
-        <v>883630579.8894449</v>
+        <v>655594474.3080583</v>
       </c>
       <c r="E110">
-        <v>1960.313223678025</v>
+        <v>1454.313761473833</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2999,10 +2999,10 @@
         <v>235</v>
       </c>
       <c r="D111">
-        <v>9647.951357462525</v>
+        <v>5838.766686452444</v>
       </c>
       <c r="E111">
-        <v>1641.424879807692</v>
+        <v>993.3591346153846</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3016,10 +3016,10 @@
         <v>236</v>
       </c>
       <c r="D112">
-        <v>576463.6117604286</v>
+        <v>458712.1237498115</v>
       </c>
       <c r="E112">
-        <v>1501.210267962831</v>
+        <v>1193.724013461862</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3033,10 +3033,10 @@
         <v>237</v>
       </c>
       <c r="D113">
-        <v>32544199.28272945</v>
+        <v>16838790.02071499</v>
       </c>
       <c r="E113">
-        <v>2139.721866231344</v>
+        <v>1107.114661337454</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3050,10 +3050,10 @@
         <v>238</v>
       </c>
       <c r="D114">
-        <v>46432.07531788696</v>
+        <v>34563.46244095353</v>
       </c>
       <c r="E114">
-        <v>1684.495805369128</v>
+        <v>1253.923447986577</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3067,10 +3067,10 @@
         <v>239</v>
       </c>
       <c r="D115">
-        <v>410310.7030779923</v>
+        <v>243564.9467423162</v>
       </c>
       <c r="E115">
-        <v>1773.156897926635</v>
+        <v>1052.572617623604</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3084,10 +3084,10 @@
         <v>240</v>
       </c>
       <c r="D116">
-        <v>71381.23804469343</v>
+        <v>50513.41203749277</v>
       </c>
       <c r="E116">
-        <v>1508.88248502994</v>
+        <v>1067.771831337325</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3101,10 +3101,10 @@
         <v>241</v>
       </c>
       <c r="D117">
-        <v>309704042.3874471</v>
+        <v>353584259.3302546</v>
       </c>
       <c r="E117">
-        <v>1235.876880414075</v>
+        <v>1410.611972704773</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3118,10 +3118,10 @@
         <v>242</v>
       </c>
       <c r="D118">
-        <v>1526682.591281402</v>
+        <v>1243282.069493052</v>
       </c>
       <c r="E118">
-        <v>1456.456761153717</v>
+        <v>1186.157332615526</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3135,10 +3135,10 @@
         <v>243</v>
       </c>
       <c r="D119">
-        <v>1744769.947824448</v>
+        <v>1125436.690879151</v>
       </c>
       <c r="E119">
-        <v>1673.561334872584</v>
+        <v>1079.233217889516</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3152,10 +3152,10 @@
         <v>244</v>
       </c>
       <c r="D120">
-        <v>11836138.70656691</v>
+        <v>10162044.28208198</v>
       </c>
       <c r="E120">
-        <v>1445.319064197207</v>
+        <v>1240.870287755009</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3169,10 +3169,10 @@
         <v>245</v>
       </c>
       <c r="D121">
-        <v>162811.6375503608</v>
+        <v>85141.31493734712</v>
       </c>
       <c r="E121">
-        <v>1665.15599078341</v>
+        <v>870.6366359447005</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3186,10 +3186,10 @@
         <v>246</v>
       </c>
       <c r="D122">
-        <v>406649.6499692686</v>
+        <v>218322.4783774695</v>
       </c>
       <c r="E122">
-        <v>1562.901270006959</v>
+        <v>839.2433020180932</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3203,10 +3203,10 @@
         <v>247</v>
       </c>
       <c r="D123">
-        <v>3167331.106822563</v>
+        <v>2569634.090260611</v>
       </c>
       <c r="E123">
-        <v>1197.639501637986</v>
+        <v>972.0090136981876</v>
       </c>
     </row>
   </sheetData>
